--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Sele</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sele</t>
-  </si>
-  <si>
-    <t>Cd44</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="H2">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="I2">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="J2">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>296.7285723037481</v>
+        <v>373.8540203840302</v>
       </c>
       <c r="R2">
-        <v>2670.557150733733</v>
+        <v>3364.686183456271</v>
       </c>
       <c r="S2">
-        <v>0.03107469027408693</v>
+        <v>0.04427993322519601</v>
       </c>
       <c r="T2">
-        <v>0.03107469027408694</v>
+        <v>0.044279933225196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="H3">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="I3">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="J3">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>1227.655955071721</v>
+        <v>1798.857931956286</v>
       </c>
       <c r="R3">
-        <v>11048.90359564549</v>
+        <v>16189.72138760658</v>
       </c>
       <c r="S3">
-        <v>0.1285654032936896</v>
+        <v>0.2130599238355578</v>
       </c>
       <c r="T3">
-        <v>0.1285654032936896</v>
+        <v>0.2130599238355578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="H4">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="I4">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="J4">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>3239.73947498406</v>
+        <v>3246.762096821723</v>
       </c>
       <c r="R4">
-        <v>29157.65527485654</v>
+        <v>29220.85887139551</v>
       </c>
       <c r="S4">
-        <v>0.3392794295886248</v>
+        <v>0.3845522610608376</v>
       </c>
       <c r="T4">
-        <v>0.3392794295886249</v>
+        <v>0.3845522610608376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="H5">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="I5">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="J5">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>869.2621804114559</v>
+        <v>799.7170083502225</v>
       </c>
       <c r="R5">
-        <v>7823.359623703102</v>
+        <v>7197.453075152003</v>
       </c>
       <c r="S5">
-        <v>0.09103286823222541</v>
+        <v>0.09471990081162179</v>
       </c>
       <c r="T5">
-        <v>0.09103286823222542</v>
+        <v>0.09471990081162179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="H6">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="I6">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="J6">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>3739.303919230381</v>
+        <v>2179.797227319488</v>
       </c>
       <c r="R6">
-        <v>33653.73527307343</v>
+        <v>19618.1750458754</v>
       </c>
       <c r="S6">
-        <v>0.3915959633702445</v>
+        <v>0.2581790495954164</v>
       </c>
       <c r="T6">
-        <v>0.3915959633702445</v>
+        <v>0.2581790495954164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.305662</v>
       </c>
       <c r="I7">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="J7">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>2.276650285857111</v>
+        <v>1.957576856170445</v>
       </c>
       <c r="R7">
-        <v>20.489852572714</v>
+        <v>17.618191705534</v>
       </c>
       <c r="S7">
-        <v>0.0002384205941010675</v>
+        <v>0.0002318588747163281</v>
       </c>
       <c r="T7">
-        <v>0.0002384205941010676</v>
+        <v>0.0002318588747163281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.305662</v>
       </c>
       <c r="I8">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="J8">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>9.419191617944888</v>
@@ -948,10 +948,10 @@
         <v>84.77272456150399</v>
       </c>
       <c r="S8">
-        <v>0.0009864181931906798</v>
+        <v>0.001115625760689939</v>
       </c>
       <c r="T8">
-        <v>0.0009864181931906798</v>
+        <v>0.001115625760689939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.305662</v>
       </c>
       <c r="I9">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="J9">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>24.85690455948</v>
+        <v>17.00071683514555</v>
       </c>
       <c r="R9">
-        <v>223.71214103532</v>
+        <v>153.00645151631</v>
       </c>
       <c r="S9">
-        <v>0.002603121783525743</v>
+        <v>0.002013595053672098</v>
       </c>
       <c r="T9">
-        <v>0.002603121783525744</v>
+        <v>0.002013595053672098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.305662</v>
       </c>
       <c r="I10">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="J10">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>6.669415001574889</v>
+        <v>4.187483407090665</v>
       </c>
       <c r="R10">
-        <v>60.02473501417399</v>
+        <v>37.68735066381599</v>
       </c>
       <c r="S10">
-        <v>0.0006984497781060864</v>
+        <v>0.0004959729614706894</v>
       </c>
       <c r="T10">
-        <v>0.0006984497781060865</v>
+        <v>0.0004959729614706894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.305662</v>
       </c>
       <c r="I11">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="J11">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,648 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>28.68981328804422</v>
+        <v>11.41386843710244</v>
       </c>
       <c r="R11">
-        <v>258.208319592398</v>
+        <v>102.724815933922</v>
       </c>
       <c r="S11">
-        <v>0.003004520444477926</v>
+        <v>0.00135187882082131</v>
       </c>
       <c r="T11">
-        <v>0.003004520444477927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.188716</v>
-      </c>
-      <c r="I12">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="J12">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>22.34478233333333</v>
-      </c>
-      <c r="N12">
-        <v>67.034347</v>
-      </c>
-      <c r="O12">
-        <v>0.03165884810812076</v>
-      </c>
-      <c r="P12">
-        <v>0.03165884810812077</v>
-      </c>
-      <c r="Q12">
-        <v>1.405605980939111</v>
-      </c>
-      <c r="R12">
-        <v>12.650453828452</v>
-      </c>
-      <c r="S12">
-        <v>0.0001472010941378943</v>
-      </c>
-      <c r="T12">
-        <v>0.0001472010941378944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.188716</v>
-      </c>
-      <c r="I13">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="J13">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>92.44713066666667</v>
-      </c>
-      <c r="N13">
-        <v>277.341392</v>
-      </c>
-      <c r="O13">
-        <v>0.1309822411400946</v>
-      </c>
-      <c r="P13">
-        <v>0.1309822411400946</v>
-      </c>
-      <c r="Q13">
-        <v>5.815417570296888</v>
-      </c>
-      <c r="R13">
-        <v>52.338758132672</v>
-      </c>
-      <c r="S13">
-        <v>0.0006090154999514899</v>
-      </c>
-      <c r="T13">
-        <v>0.00060901549995149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.188716</v>
-      </c>
-      <c r="I14">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="J14">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>243.96462</v>
-      </c>
-      <c r="N14">
-        <v>731.89386</v>
-      </c>
-      <c r="O14">
-        <v>0.3456573768818275</v>
-      </c>
-      <c r="P14">
-        <v>0.3456573768818275</v>
-      </c>
-      <c r="Q14">
-        <v>15.34667574264</v>
-      </c>
-      <c r="R14">
-        <v>138.12008168376</v>
-      </c>
-      <c r="S14">
-        <v>0.001607169783943847</v>
-      </c>
-      <c r="T14">
-        <v>0.001607169783943847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.188716</v>
-      </c>
-      <c r="I15">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="J15">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>65.45872566666667</v>
-      </c>
-      <c r="N15">
-        <v>196.376177</v>
-      </c>
-      <c r="O15">
-        <v>0.09274415039347572</v>
-      </c>
-      <c r="P15">
-        <v>0.09274415039347572</v>
-      </c>
-      <c r="Q15">
-        <v>4.117702957636888</v>
-      </c>
-      <c r="R15">
-        <v>37.05932661873199</v>
-      </c>
-      <c r="S15">
-        <v>0.0004312235355558368</v>
-      </c>
-      <c r="T15">
-        <v>0.0004312235355558369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.188716</v>
-      </c>
-      <c r="I16">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="J16">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>281.5837096666667</v>
-      </c>
-      <c r="N16">
-        <v>844.751129</v>
-      </c>
-      <c r="O16">
-        <v>0.3989573834764815</v>
-      </c>
-      <c r="P16">
-        <v>0.3989573834764815</v>
-      </c>
-      <c r="Q16">
-        <v>17.71311711781822</v>
-      </c>
-      <c r="R16">
-        <v>159.418054060364</v>
-      </c>
-      <c r="S16">
-        <v>0.001854993686490621</v>
-      </c>
-      <c r="T16">
-        <v>0.001854993686490622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.084843</v>
-      </c>
-      <c r="H17">
-        <v>0.254529</v>
-      </c>
-      <c r="I17">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="J17">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>22.34478233333333</v>
-      </c>
-      <c r="N17">
-        <v>67.034347</v>
-      </c>
-      <c r="O17">
-        <v>0.03165884810812076</v>
-      </c>
-      <c r="P17">
-        <v>0.03165884810812077</v>
-      </c>
-      <c r="Q17">
-        <v>1.895798367507</v>
-      </c>
-      <c r="R17">
-        <v>17.062185307563</v>
-      </c>
-      <c r="S17">
-        <v>0.0001985361457948669</v>
-      </c>
-      <c r="T17">
-        <v>0.000198536145794867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.084843</v>
-      </c>
-      <c r="H18">
-        <v>0.254529</v>
-      </c>
-      <c r="I18">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="J18">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>92.44713066666667</v>
-      </c>
-      <c r="N18">
-        <v>277.341392</v>
-      </c>
-      <c r="O18">
-        <v>0.1309822411400946</v>
-      </c>
-      <c r="P18">
-        <v>0.1309822411400946</v>
-      </c>
-      <c r="Q18">
-        <v>7.843491907152</v>
-      </c>
-      <c r="R18">
-        <v>70.591427164368</v>
-      </c>
-      <c r="S18">
-        <v>0.0008214041532628542</v>
-      </c>
-      <c r="T18">
-        <v>0.0008214041532628543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.084843</v>
-      </c>
-      <c r="H19">
-        <v>0.254529</v>
-      </c>
-      <c r="I19">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="J19">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>243.96462</v>
-      </c>
-      <c r="N19">
-        <v>731.89386</v>
-      </c>
-      <c r="O19">
-        <v>0.3456573768818275</v>
-      </c>
-      <c r="P19">
-        <v>0.3456573768818275</v>
-      </c>
-      <c r="Q19">
-        <v>20.69869025466</v>
-      </c>
-      <c r="R19">
-        <v>186.28821229194</v>
-      </c>
-      <c r="S19">
-        <v>0.002167655725733077</v>
-      </c>
-      <c r="T19">
-        <v>0.002167655725733078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.084843</v>
-      </c>
-      <c r="H20">
-        <v>0.254529</v>
-      </c>
-      <c r="I20">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="J20">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>65.45872566666667</v>
-      </c>
-      <c r="N20">
-        <v>196.376177</v>
-      </c>
-      <c r="O20">
-        <v>0.09274415039347572</v>
-      </c>
-      <c r="P20">
-        <v>0.09274415039347572</v>
-      </c>
-      <c r="Q20">
-        <v>5.553714661737</v>
-      </c>
-      <c r="R20">
-        <v>49.98343195563299</v>
-      </c>
-      <c r="S20">
-        <v>0.0005816088475883953</v>
-      </c>
-      <c r="T20">
-        <v>0.0005816088475883954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.084843</v>
-      </c>
-      <c r="H21">
-        <v>0.254529</v>
-      </c>
-      <c r="I21">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="J21">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>281.5837096666667</v>
-      </c>
-      <c r="N21">
-        <v>844.751129</v>
-      </c>
-      <c r="O21">
-        <v>0.3989573834764815</v>
-      </c>
-      <c r="P21">
-        <v>0.3989573834764815</v>
-      </c>
-      <c r="Q21">
-        <v>23.890406679249</v>
-      </c>
-      <c r="R21">
-        <v>215.013660113241</v>
-      </c>
-      <c r="S21">
-        <v>0.002501905975268506</v>
-      </c>
-      <c r="T21">
-        <v>0.002501905975268507</v>
+        <v>0.00135187882082131</v>
       </c>
     </row>
   </sheetData>
